--- a/Basic Research/Data/OECDBratio1980.xlsx
+++ b/Basic Research/Data/OECDBratio1980.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangyy\Derwent-Data\VAR Analysis\OECD_RD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangyy\InnovationEconomics-Exploration\Basic Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACBA96E4-2E5E-417B-A2F8-973E8A0B9664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B6570A-9C9E-43E1-8A0F-0C8F04F932A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{8668A395-EF16-4C77-871D-436461F953D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8668A395-EF16-4C77-871D-436461F953D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Year</t>
   </si>
   <si>
     <t>Bratio</t>
+  </si>
+  <si>
+    <t>Blevel</t>
   </si>
 </sst>
 </file>
@@ -415,500 +418,683 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6E9C60-EC30-4190-A42F-77731FFE0DC6}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1963</v>
       </c>
       <c r="B2">
         <v>0.34431400035044685</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1964</v>
       </c>
       <c r="B3">
         <v>0.35670874240299205</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1965</v>
       </c>
       <c r="B4">
         <v>0.37061212648680014</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1966</v>
       </c>
       <c r="B5">
         <v>0.37950101146325016</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1967</v>
       </c>
       <c r="B6">
         <v>0.39523571963083065</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1968</v>
       </c>
       <c r="B7">
         <v>0.39659424544920729</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1969</v>
       </c>
       <c r="B8">
         <v>0.39027389603130241</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1970</v>
       </c>
       <c r="B9">
         <v>0.38457424047924688</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1971</v>
       </c>
       <c r="B10">
         <v>0.38936571069709025</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1972</v>
       </c>
       <c r="B11">
         <v>0.38513851385138514</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1973</v>
       </c>
       <c r="B12">
         <v>0.38118259576050578</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1974</v>
       </c>
       <c r="B13">
         <v>0.38053470523741251</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1975</v>
       </c>
       <c r="B14">
         <v>0.3760314644867741</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>4876</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1976</v>
       </c>
       <c r="B15">
         <v>0.37446867814089613</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>5374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1977</v>
       </c>
       <c r="B16">
         <v>0.38585127325839841</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>6076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1978</v>
       </c>
       <c r="B17">
         <v>0.39518861531511179</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>6998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1979</v>
       </c>
       <c r="B18">
         <v>0.39355419877890102</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>7864</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1980</v>
       </c>
       <c r="B19">
         <v>0.39097877619743898</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>8824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1981</v>
       </c>
       <c r="B20">
         <v>0.37164736214260979</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>9658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1982</v>
       </c>
       <c r="B21">
         <v>0.36894246423499255</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>10651</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1983</v>
       </c>
       <c r="B22">
         <v>0.36919634532910683</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>11880</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1984</v>
       </c>
       <c r="B23">
         <v>0.37257915770058408</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>13332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1985</v>
       </c>
       <c r="B24">
         <v>0.36733168945677352</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>14748</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1986</v>
       </c>
       <c r="B25">
         <v>0.38640356804973647</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>17154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1987</v>
       </c>
       <c r="B26">
         <v>0.39802291523087524</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>18481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1988</v>
       </c>
       <c r="B27">
         <v>0.40123694616242522</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>19787</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1989</v>
       </c>
       <c r="B28">
         <v>0.40413159060700043</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>21891</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1990</v>
       </c>
       <c r="B29">
         <v>0.39755895452819112</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>23029</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1991</v>
       </c>
       <c r="B30">
         <v>0.41264387039880801</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>27140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1992</v>
       </c>
       <c r="B31">
         <v>0.42117790662191029</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>27604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1993</v>
       </c>
       <c r="B32">
         <v>0.43532850695180686</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>28743</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1994</v>
       </c>
       <c r="B33">
         <v>0.44743394347281534</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>29651</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1995</v>
       </c>
       <c r="B34">
         <v>0.41972613613812265</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>29610</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1996</v>
       </c>
       <c r="B35">
         <v>0.43174189472021485</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>32799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1997</v>
       </c>
       <c r="B36">
         <v>0.44113512669253779</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>36717</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1998</v>
       </c>
       <c r="B37">
         <v>0.42967603497391754</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>34842</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1999</v>
       </c>
       <c r="B38">
         <v>0.42471847783879735</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>38282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2000</v>
       </c>
       <c r="B39">
         <v>0.4265750588617358</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>42033</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2001</v>
       </c>
       <c r="B40">
         <v>0.41933178973264351</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>46363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2002</v>
       </c>
       <c r="B41">
         <v>0.49930651872399445</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2003</v>
       </c>
       <c r="B42">
         <v>0.47340379600366128</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>54823</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2004</v>
       </c>
       <c r="B43">
         <v>0.44851671824408718</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>56379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2005</v>
       </c>
       <c r="B44">
         <v>0.4619448279053267</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>59899</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2006</v>
       </c>
       <c r="B45">
         <v>0.44586420960369716</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>61552</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2007</v>
       </c>
       <c r="B46">
         <v>0.4428105228105228</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>66488</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2008</v>
       </c>
       <c r="B47">
         <v>0.48532683182159408</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>70468</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2009</v>
       </c>
       <c r="B48">
         <v>0.50623188602996205</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>74409</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2010</v>
       </c>
       <c r="B49">
         <v>0.4922438208032956</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>76475</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2011</v>
       </c>
       <c r="B50">
         <v>0.47417459735279166</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>73691</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2012</v>
       </c>
       <c r="B51">
         <v>0.46066779148170517</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>73992</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2013</v>
       </c>
       <c r="B52">
         <v>0.47391678725617997</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>79255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2014</v>
       </c>
       <c r="B53">
         <v>0.47505086105619071</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>82894</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2015</v>
       </c>
       <c r="B54">
         <v>0.46262905534480975</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>85003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2016</v>
       </c>
       <c r="B55">
         <v>0.44234940848012533</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>88093</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2017</v>
       </c>
       <c r="B56">
         <v>0.44125564030548919</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>90652</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2018</v>
       </c>
       <c r="B57">
         <v>0.45090770969764365</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>98531</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2019</v>
       </c>
       <c r="B58">
         <v>0.44531200566937901</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>105567</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2020</v>
       </c>
       <c r="B59">
         <v>0.45661913136720511</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>112421</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2021</v>
       </c>
       <c r="B60">
         <v>0.4491311251761233</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>120492</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2022</v>
       </c>
       <c r="B61">
         <v>0.44668201970193466</v>
+      </c>
+      <c r="C61">
+        <v>132087</v>
       </c>
     </row>
   </sheetData>
